--- a/exp/equiv.xlsx
+++ b/exp/equiv.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="8160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>USPS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +75,22 @@
   </si>
   <si>
     <t>Naïve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOL Uni</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOL Bi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOL Uni</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOL Bi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -417,7 +433,7 @@
   <dimension ref="B6:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -618,6 +634,12 @@
       <c r="H22" t="s">
         <v>10</v>
       </c>
+      <c r="I22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="E23" s="1">
@@ -632,6 +654,12 @@
       <c r="H23" s="1">
         <v>9.1633163316331599E-4</v>
       </c>
+      <c r="I23" s="1">
+        <v>4.61038302269914E-4</v>
+      </c>
+      <c r="J23">
+        <v>1.1779133504468599E-3</v>
+      </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="E24" s="3">
@@ -645,6 +673,12 @@
       </c>
       <c r="H24" s="3">
         <v>99990000</v>
+      </c>
+      <c r="I24">
+        <v>99970002</v>
+      </c>
+      <c r="J24">
+        <v>99970002</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
@@ -659,6 +693,12 @@
       </c>
       <c r="H25">
         <v>93169</v>
+      </c>
+      <c r="I25">
+        <v>47019</v>
+      </c>
+      <c r="J25">
+        <v>118831</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
@@ -667,7 +707,7 @@
         <v>6.1057105710571053E-4</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" ref="F26:H26" si="2">F25/F24</f>
+        <f t="shared" ref="F26:J26" si="2">F25/F24</f>
         <v>9.0725072507250721E-4</v>
       </c>
       <c r="G26" s="1">
@@ -678,6 +718,14 @@
         <f t="shared" si="2"/>
         <v>9.3178317831783179E-4</v>
       </c>
+      <c r="I26" s="1">
+        <f t="shared" si="2"/>
+        <v>4.703310899203543E-4</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="2"/>
+        <v>1.1886665761995283E-3</v>
+      </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="E27" s="3">
@@ -692,6 +740,12 @@
       <c r="H27" s="3">
         <v>2</v>
       </c>
+      <c r="I27" s="3">
+        <v>144</v>
+      </c>
+      <c r="J27" s="3">
+        <v>168</v>
+      </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="E28" s="3">
@@ -706,6 +760,12 @@
       <c r="H28" s="3">
         <v>932</v>
       </c>
+      <c r="I28" s="3">
+        <v>470</v>
+      </c>
+      <c r="J28" s="3">
+        <v>1190</v>
+      </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
@@ -725,8 +785,14 @@
       <c r="H32" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I32" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E33" s="1">
         <v>4.9089908990899002E-4</v>
       </c>
@@ -736,8 +802,17 @@
       <c r="G33">
         <v>4.6087408740873997E-3</v>
       </c>
-    </row>
-    <row r="34" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H33">
+        <v>3.56015901590159E-2</v>
+      </c>
+      <c r="I33">
+        <v>9.83793869144701E-3</v>
+      </c>
+      <c r="J33">
+        <v>4.0935002648538998E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E34">
         <v>99990000</v>
       </c>
@@ -747,8 +822,17 @@
       <c r="G34">
         <v>99990000</v>
       </c>
-    </row>
-    <row r="35" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H34">
+        <v>99990000</v>
+      </c>
+      <c r="I34">
+        <v>94799432</v>
+      </c>
+      <c r="J34">
+        <v>94799432</v>
+      </c>
+    </row>
+    <row r="35" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E35">
         <v>49406</v>
       </c>
@@ -758,8 +842,17 @@
       <c r="G35">
         <v>462312</v>
       </c>
-    </row>
-    <row r="36" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H35">
+        <v>3561484</v>
+      </c>
+      <c r="I35">
+        <v>933540</v>
+      </c>
+      <c r="J35">
+        <v>3881642</v>
+      </c>
+    </row>
+    <row r="36" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E36">
         <f>E35/E34</f>
         <v>4.9410941094109415E-4</v>
@@ -772,8 +865,20 @@
         <f>G35/G34</f>
         <v>4.6235823582358232E-3</v>
       </c>
-    </row>
-    <row r="37" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H36">
+        <f>H35/H34</f>
+        <v>3.5618401840184021E-2</v>
+      </c>
+      <c r="I36">
+        <f>I35/I34</f>
+        <v>9.8475273564930226E-3</v>
+      </c>
+      <c r="J36">
+        <f>J35/J34</f>
+        <v>4.0945836046781377E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E37">
         <v>0</v>
       </c>
@@ -783,8 +888,17 @@
       <c r="G37">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <v>140</v>
+      </c>
+      <c r="J37">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E38">
         <v>494</v>
       </c>
@@ -793,6 +907,15 @@
       </c>
       <c r="G38">
         <v>4624</v>
+      </c>
+      <c r="H38">
+        <v>35618</v>
+      </c>
+      <c r="I38">
+        <v>9848</v>
+      </c>
+      <c r="J38">
+        <v>40946</v>
       </c>
     </row>
   </sheetData>

--- a/exp/equiv.xlsx
+++ b/exp/equiv.xlsx
@@ -433,7 +433,7 @@
   <dimension ref="B6:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -655,10 +655,10 @@
         <v>9.1633163316331599E-4</v>
       </c>
       <c r="I23" s="1">
-        <v>4.61038302269914E-4</v>
+        <v>4.6066731707843903E-4</v>
       </c>
       <c r="J23">
-        <v>1.1779133504468599E-3</v>
+        <v>1.17758089521042E-3</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
@@ -675,10 +675,10 @@
         <v>99990000</v>
       </c>
       <c r="I24">
-        <v>99970002</v>
+        <v>94799432</v>
       </c>
       <c r="J24">
-        <v>99970002</v>
+        <v>94799432</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
@@ -695,10 +695,10 @@
         <v>93169</v>
       </c>
       <c r="I25">
-        <v>47019</v>
+        <v>44686</v>
       </c>
       <c r="J25">
-        <v>118831</v>
+        <v>112622</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
@@ -720,11 +720,11 @@
       </c>
       <c r="I26" s="1">
         <f t="shared" si="2"/>
-        <v>4.703310899203543E-4</v>
+        <v>4.7137413228383058E-4</v>
       </c>
       <c r="J26" s="1">
         <f t="shared" si="2"/>
-        <v>1.1886665761995283E-3</v>
+        <v>1.1880028985827679E-3</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
@@ -741,10 +741,10 @@
         <v>2</v>
       </c>
       <c r="I27" s="3">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J27" s="3">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
@@ -854,27 +854,27 @@
     </row>
     <row r="36" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E36">
-        <f>E35/E34</f>
+        <f t="shared" ref="E36:J36" si="3">E35/E34</f>
         <v>4.9410941094109415E-4</v>
       </c>
       <c r="F36">
-        <f>F35/F34</f>
+        <f t="shared" si="3"/>
         <v>1.6172617261726173E-3</v>
       </c>
       <c r="G36">
-        <f>G35/G34</f>
+        <f t="shared" si="3"/>
         <v>4.6235823582358232E-3</v>
       </c>
       <c r="H36">
-        <f>H35/H34</f>
+        <f t="shared" si="3"/>
         <v>3.5618401840184021E-2</v>
       </c>
       <c r="I36">
-        <f>I35/I34</f>
+        <f t="shared" si="3"/>
         <v>9.8475273564930226E-3</v>
       </c>
       <c r="J36">
-        <f>J35/J34</f>
+        <f t="shared" si="3"/>
         <v>4.0945836046781377E-2</v>
       </c>
     </row>

--- a/exp/equiv.xlsx
+++ b/exp/equiv.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>USPS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,12 +93,28 @@
     <t>AOL Bi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>평균 PQ 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Validation call</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hybrid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +130,24 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -123,12 +157,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF008000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF008000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF008000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF008000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -137,7 +186,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -149,6 +198,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -165,6 +223,904 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$97:$H$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$98:$H$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1630</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3950</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-172F-4992-B2A5-189C568DAC25}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1171843407"/>
+        <c:axId val="1171845071"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1171843407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1171845071"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1171845071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1171843407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -430,15 +1386,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:K38"/>
+  <dimension ref="B6:M98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97:H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
@@ -761,7 +1718,7 @@
         <v>932</v>
       </c>
       <c r="I28" s="3">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="J28" s="3">
         <v>1190</v>
@@ -918,8 +1875,422 @@
         <v>40946</v>
       </c>
     </row>
+    <row r="45" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E45">
+        <v>10000</v>
+      </c>
+      <c r="F45">
+        <v>10000</v>
+      </c>
+      <c r="G45">
+        <v>10000</v>
+      </c>
+      <c r="H45">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="46" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E46" s="2">
+        <v>271882</v>
+      </c>
+      <c r="F46" s="2">
+        <v>4703608</v>
+      </c>
+      <c r="G46" s="2">
+        <v>16281783</v>
+      </c>
+      <c r="H46" s="2">
+        <v>39516958</v>
+      </c>
+    </row>
+    <row r="47" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E47">
+        <f>E46/E45</f>
+        <v>27.188199999999998</v>
+      </c>
+      <c r="F47">
+        <f t="shared" ref="F47:H47" si="4">F46/F45</f>
+        <v>470.36079999999998</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="4"/>
+        <v>1628.1783</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="4"/>
+        <v>3951.6958</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49">
+        <v>27.2</v>
+      </c>
+      <c r="F49">
+        <v>470</v>
+      </c>
+      <c r="G49">
+        <v>1630</v>
+      </c>
+      <c r="H49">
+        <v>3950</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1609985</v>
+      </c>
+      <c r="F50" s="2">
+        <v>139762</v>
+      </c>
+      <c r="G50" s="2">
+        <v>105993</v>
+      </c>
+      <c r="H50" s="2">
+        <v>102123</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="E51">
+        <f>E50/E45</f>
+        <v>160.99850000000001</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ref="F51:H51" si="5">F50/F45</f>
+        <v>13.9762</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="5"/>
+        <v>10.599299999999999</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="5"/>
+        <v>10.212300000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="E53" s="2">
+        <v>139762</v>
+      </c>
+      <c r="F53" s="2">
+        <v>119376</v>
+      </c>
+      <c r="G53" s="2">
+        <v>113559</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="61" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D61" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" s="2">
+        <v>1705050</v>
+      </c>
+      <c r="F61" s="2">
+        <v>1143917</v>
+      </c>
+      <c r="G61" s="2">
+        <v>295030</v>
+      </c>
+      <c r="J61" s="4">
+        <v>60328</v>
+      </c>
+      <c r="K61" s="5">
+        <v>72029</v>
+      </c>
+      <c r="L61" s="6">
+        <v>73744</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E62" s="2">
+        <v>676076</v>
+      </c>
+      <c r="F62" s="2">
+        <v>641483</v>
+      </c>
+      <c r="G62" s="2">
+        <v>825006</v>
+      </c>
+      <c r="J62" s="6">
+        <v>26026</v>
+      </c>
+      <c r="K62" s="4">
+        <v>23036</v>
+      </c>
+      <c r="L62" s="5">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E63" s="2">
+        <v>57163</v>
+      </c>
+      <c r="F63" s="2">
+        <v>69157</v>
+      </c>
+      <c r="G63" s="2">
+        <v>60849</v>
+      </c>
+      <c r="J63" s="4">
+        <v>19357</v>
+      </c>
+      <c r="K63" s="5">
+        <v>21225</v>
+      </c>
+      <c r="L63" s="6">
+        <v>23638</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="E64" s="2">
+        <v>19648</v>
+      </c>
+      <c r="F64" s="2">
+        <v>14853</v>
+      </c>
+      <c r="G64" s="2">
+        <v>11631</v>
+      </c>
+    </row>
+    <row r="65" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E65" s="2">
+        <f>AVERAGE(E61:G61)</f>
+        <v>1047999</v>
+      </c>
+      <c r="J65" s="2">
+        <f>AVERAGE(J61:L61)</f>
+        <v>68700.333333333328</v>
+      </c>
+    </row>
+    <row r="66" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E66" s="2">
+        <f>AVERAGE(E62:G62)</f>
+        <v>714188.33333333337</v>
+      </c>
+      <c r="J66" s="2">
+        <f>AVERAGE(J62:L62)</f>
+        <v>25020.666666666668</v>
+      </c>
+    </row>
+    <row r="67" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E67" s="2">
+        <f>AVERAGE(E63:G63)</f>
+        <v>62389.666666666664</v>
+      </c>
+      <c r="J67" s="2">
+        <f>AVERAGE(J63:L63)</f>
+        <v>21406.666666666668</v>
+      </c>
+    </row>
+    <row r="68" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E68" s="2">
+        <f>AVERAGE(E64:G64)</f>
+        <v>15377.333333333334</v>
+      </c>
+    </row>
+    <row r="69" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E69">
+        <v>1047999</v>
+      </c>
+    </row>
+    <row r="70" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E70">
+        <v>714188.33333333337</v>
+      </c>
+      <c r="J70">
+        <v>68700.333333333328</v>
+      </c>
+    </row>
+    <row r="71" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E71">
+        <v>62389.666666666664</v>
+      </c>
+      <c r="J71">
+        <v>25020.666666666668</v>
+      </c>
+    </row>
+    <row r="72" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E72">
+        <v>15377.333333333334</v>
+      </c>
+      <c r="J72">
+        <v>21406.666666666668</v>
+      </c>
+    </row>
+    <row r="74" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E74">
+        <v>1047999</v>
+      </c>
+      <c r="F74">
+        <v>714188.33333333337</v>
+      </c>
+      <c r="G74">
+        <v>62389.666666666664</v>
+      </c>
+      <c r="H74">
+        <v>15377.333333333334</v>
+      </c>
+      <c r="J74">
+        <v>68700.333333333328</v>
+      </c>
+      <c r="K74">
+        <v>25020.666666666668</v>
+      </c>
+      <c r="L74">
+        <v>21406.666666666668</v>
+      </c>
+    </row>
+    <row r="75" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E75">
+        <f>E74/E45</f>
+        <v>104.79989999999999</v>
+      </c>
+      <c r="F75">
+        <f t="shared" ref="F75:H75" si="6">F74/F45</f>
+        <v>71.418833333333339</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="6"/>
+        <v>6.2389666666666663</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="6"/>
+        <v>1.5377333333333334</v>
+      </c>
+      <c r="J75">
+        <f>J74/E45</f>
+        <v>6.8700333333333328</v>
+      </c>
+      <c r="K75">
+        <f t="shared" ref="K75:L75" si="7">K74/F45</f>
+        <v>2.5020666666666669</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="7"/>
+        <v>2.1406666666666667</v>
+      </c>
+    </row>
+    <row r="81" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D81" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="E83">
+        <v>60302089</v>
+      </c>
+      <c r="F83" s="2">
+        <v>2950277</v>
+      </c>
+      <c r="G83" s="2">
+        <v>260723</v>
+      </c>
+      <c r="H83" s="2">
+        <v>116021</v>
+      </c>
+      <c r="K83">
+        <v>263160</v>
+      </c>
+      <c r="L83">
+        <v>132730</v>
+      </c>
+      <c r="M83" s="2">
+        <v>122044</v>
+      </c>
+    </row>
+    <row r="84" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="E84">
+        <f>E83/E45</f>
+        <v>6030.2088999999996</v>
+      </c>
+      <c r="F84">
+        <f t="shared" ref="F84:H84" si="8">F83/F45</f>
+        <v>295.02769999999998</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="8"/>
+        <v>26.072299999999998</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="8"/>
+        <v>11.6021</v>
+      </c>
+      <c r="K84">
+        <f>K83/E45</f>
+        <v>26.315999999999999</v>
+      </c>
+      <c r="L84">
+        <f t="shared" ref="L84:M84" si="9">L83/F45</f>
+        <v>13.273</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="9"/>
+        <v>12.2044</v>
+      </c>
+    </row>
+    <row r="90" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="K90">
+        <v>119376</v>
+      </c>
+      <c r="L90">
+        <v>113559</v>
+      </c>
+      <c r="M90">
+        <v>112743</v>
+      </c>
+    </row>
+    <row r="91" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="K91">
+        <f>K90/E45</f>
+        <v>11.9376</v>
+      </c>
+      <c r="L91">
+        <f t="shared" ref="L91:M91" si="10">L90/F45</f>
+        <v>11.3559</v>
+      </c>
+      <c r="M91">
+        <f t="shared" si="10"/>
+        <v>11.2743</v>
+      </c>
+    </row>
+    <row r="97" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>2</v>
+      </c>
+      <c r="G97">
+        <v>3</v>
+      </c>
+      <c r="H97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E98">
+        <v>27</v>
+      </c>
+      <c r="F98">
+        <v>470</v>
+      </c>
+      <c r="G98">
+        <v>1630</v>
+      </c>
+      <c r="H98">
+        <v>3950</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/exp/equiv.xlsx
+++ b/exp/equiv.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoonjae\Documents\Synonym\exp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paryo\Documents\Synonym-Optimized\exp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="8160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="8160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>USPS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,13 +91,21 @@
   </si>
   <si>
     <t>AOL Bi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Syn Uni</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Syn Bi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -429,16 +437,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:K38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B6:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
@@ -573,7 +582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>4.6739673967396701E-4</v>
       </c>
@@ -602,7 +611,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C18">
         <v>99990000</v>
       </c>
@@ -616,12 +625,12 @@
         <v>99970002</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
         <v>7</v>
       </c>
@@ -640,8 +649,14 @@
       <c r="J22" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E23" s="1">
         <v>6.0744074407440701E-4</v>
       </c>
@@ -660,8 +675,12 @@
       <c r="J23">
         <v>1.17758089521042E-3</v>
       </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K23" s="1">
+        <v>4.9131999999999995E-4</v>
+      </c>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E24" s="3">
         <v>99990000</v>
       </c>
@@ -680,8 +699,12 @@
       <c r="J24">
         <v>94799432</v>
       </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K24" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E25">
         <v>61051</v>
       </c>
@@ -700,14 +723,17 @@
       <c r="J25">
         <v>112622</v>
       </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K25">
+        <v>49132</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E26" s="1">
         <f>E25/E24</f>
         <v>6.1057105710571053E-4</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" ref="F26:J26" si="2">F25/F24</f>
+        <f t="shared" ref="F26:K26" si="2">F25/F24</f>
         <v>9.0725072507250721E-4</v>
       </c>
       <c r="G26" s="1">
@@ -726,8 +752,12 @@
         <f t="shared" si="2"/>
         <v>1.1880028985827679E-3</v>
       </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K26" s="1">
+        <f t="shared" ref="K26" si="3">K25/K24</f>
+        <v>4.9131999999999995E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E27" s="3">
         <v>0</v>
       </c>
@@ -746,8 +776,9 @@
       <c r="J27" s="3">
         <v>162</v>
       </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E28" s="3">
         <v>611</v>
       </c>
@@ -766,13 +797,16 @@
       <c r="J28" s="3">
         <v>1190</v>
       </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K28" s="3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>7</v>
       </c>
@@ -791,8 +825,14 @@
       <c r="J32" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K32" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E33" s="1">
         <v>4.9089908990899002E-4</v>
       </c>
@@ -811,8 +851,11 @@
       <c r="J33">
         <v>4.0935002648538998E-2</v>
       </c>
-    </row>
-    <row r="34" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K33" s="1">
+        <v>2.6893799999999999E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E34">
         <v>99990000</v>
       </c>
@@ -831,8 +874,11 @@
       <c r="J34">
         <v>94799432</v>
       </c>
-    </row>
-    <row r="35" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K34" s="2">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="35" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E35">
         <v>49406</v>
       </c>
@@ -851,34 +897,41 @@
       <c r="J35">
         <v>3881642</v>
       </c>
-    </row>
-    <row r="36" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K35">
+        <v>268938</v>
+      </c>
+    </row>
+    <row r="36" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E36">
-        <f t="shared" ref="E36:J36" si="3">E35/E34</f>
+        <f t="shared" ref="E36:K36" si="4">E35/E34</f>
         <v>4.9410941094109415E-4</v>
       </c>
       <c r="F36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6172617261726173E-3</v>
       </c>
       <c r="G36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.6235823582358232E-3</v>
       </c>
       <c r="H36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.5618401840184021E-2</v>
       </c>
       <c r="I36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.8475273564930226E-3</v>
       </c>
       <c r="J36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.0945836046781377E-2</v>
       </c>
-    </row>
-    <row r="37" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K36">
+        <f t="shared" si="4"/>
+        <v>2.6893799999999999E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E37">
         <v>0</v>
       </c>
@@ -898,7 +951,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="38" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E38">
         <v>494</v>
       </c>
@@ -916,10 +969,14 @@
       </c>
       <c r="J38">
         <v>40946</v>
+      </c>
+      <c r="K38">
+        <v>2689</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>